--- a/mtg_simulator/data/rand_deck_1.xlsx
+++ b/mtg_simulator/data/rand_deck_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.craft\PycharmProjects\mtg_simulator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AADBA3-144C-4393-9D82-53F2FD52A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E37FE40-F000-4833-A116-4A1FA7E0252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,24 +474,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f ca="1">IF(C2=0,RANDBETWEEN(0,8),0)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <f ca="1">IF(C2=0, RANDBETWEEN(0,1),0)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f ca="1">IF(E2=1,RANDBETWEEN(1,5),0)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">IF(C2=0,RANDBETWEEN(0,1),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f ca="1">IF(G2=1,RANDBETWEEN(1,7),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -502,27 +497,21 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="0">IF(C3=0,RANDBETWEEN(0,8),0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="1">IF(C3=0, RANDBETWEEN(0,1),0)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" ca="1" si="2">IF(E3=1,RANDBETWEEN(1,5),0)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" ca="1" si="3">IF(C3=0,RANDBETWEEN(0,1),0)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" ca="1" si="4">IF(G3=1,RANDBETWEEN(1,7),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -534,27 +523,21 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" ca="1" si="5">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -566,27 +549,21 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -598,27 +575,21 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -630,27 +601,21 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -662,27 +627,21 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -694,27 +653,21 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -726,27 +679,21 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -758,27 +705,21 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -790,28 +731,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,27 +757,21 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -854,28 +783,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,27 +809,21 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -918,27 +835,21 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -950,27 +861,21 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -982,27 +887,21 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1014,27 +913,21 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1046,27 +939,21 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1078,27 +965,21 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1110,27 +991,21 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1142,27 +1017,21 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1174,28 +1043,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,28 +1069,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,28 +1095,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1270,27 +1121,21 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1302,27 +1147,21 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1334,27 +1173,21 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1366,28 +1199,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,27 +1225,21 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,27 +1251,21 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1462,27 +1277,21 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1494,27 +1303,21 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1526,27 +1329,21 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1558,27 +1355,21 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1590,28 +1381,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,28 +1407,22 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,27 +1433,21 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1686,27 +1459,21 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1718,28 +1485,22 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1750,27 +1511,21 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1782,27 +1537,21 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1814,27 +1563,21 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1846,27 +1589,21 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1878,27 +1615,21 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1910,27 +1641,21 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1942,27 +1667,21 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1974,27 +1693,21 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2006,27 +1719,21 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2038,27 +1745,21 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2070,27 +1771,21 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2102,28 +1797,22 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2134,28 +1823,22 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2166,28 +1849,22 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2198,28 +1875,22 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2230,28 +1901,22 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2262,28 +1927,22 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2294,28 +1953,22 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2326,28 +1979,22 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,28 +2005,22 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2390,28 +2031,22 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,28 +2057,22 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2454,28 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2486,28 +2109,22 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2518,27 +2135,21 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2550,27 +2161,21 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D101" ca="1" si="6">IF(C67=0,RANDBETWEEN(0,8),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" ca="1" si="7">IF(C67=0, RANDBETWEEN(0,1),0)</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F101" ca="1" si="8">IF(E67=1,RANDBETWEEN(1,5),0)</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G101" ca="1" si="9">IF(C67=0,RANDBETWEEN(0,1),0)</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H101" ca="1" si="10">IF(G67=1,RANDBETWEEN(1,7),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2582,27 +2187,21 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C101" ca="1" si="11">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2614,27 +2213,21 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2646,27 +2239,21 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2678,27 +2265,21 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2710,27 +2291,21 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2742,27 +2317,21 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2774,27 +2343,21 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2806,27 +2369,21 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2838,27 +2395,21 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2870,27 +2421,21 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2902,27 +2447,21 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2934,27 +2473,21 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2966,27 +2499,21 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2998,27 +2525,21 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3030,28 +2551,22 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3062,27 +2577,21 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3094,28 +2603,22 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3126,28 +2629,22 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,28 +2655,22 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3190,27 +2681,21 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F87">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3222,27 +2707,21 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3254,28 +2733,22 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,27 +2759,21 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3318,27 +2785,21 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3350,27 +2811,21 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3382,27 +2837,21 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3414,28 +2863,22 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,28 +2889,22 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3478,27 +2915,21 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3510,27 +2941,21 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3542,27 +2967,21 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3574,27 +2993,21 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3606,28 +3019,22 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3638,27 +3045,21 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
